--- a/17. Análise dos Eventos.xlsx
+++ b/17. Análise dos Eventos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurasegouras/Library/Mobile Documents/com~apple~CloudDocs/Facu/Engenharia de Requisitos/Estrutura_Dados-master/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Faculdade\hunter\Artefatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97D01B65-AA0A-9D4F-BE1D-F018BCFE95EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F619E969-83C5-4F57-BB82-FFE972B343A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21600" windowHeight="9680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Externo</t>
   </si>
@@ -93,44 +93,56 @@
     <t>FB</t>
   </si>
   <si>
-    <t>FA</t>
-  </si>
-  <si>
     <t>Vender serviço de recrutamento e seleção</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>Cliente solicita candidato para determinada vaga</t>
-  </si>
-  <si>
-    <t>Consultoria envia contrato</t>
-  </si>
-  <si>
     <t>x(1)</t>
   </si>
   <si>
     <t>x(2)</t>
   </si>
   <si>
-    <t>Cliente devolve contrato assinado</t>
-  </si>
-  <si>
     <t>Extemporâneo</t>
   </si>
   <si>
-    <t>Cliente não devolve contrato assinado</t>
-  </si>
-  <si>
     <t>ANÁLISE DE EVENTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente solicita candidato </t>
+  </si>
+  <si>
+    <t>Consultoria envia candidato para cliente</t>
+  </si>
+  <si>
+    <t>Administrador cadastra vaga</t>
+  </si>
+  <si>
+    <t>Candidato cadastra curriculo</t>
+  </si>
+  <si>
+    <t>Candidato busca vaga</t>
+  </si>
+  <si>
+    <t>Administrador cadastra testes</t>
+  </si>
+  <si>
+    <t>Administrador gera relatório</t>
+  </si>
+  <si>
+    <t>x(4)</t>
+  </si>
+  <si>
+    <t>Candidato gera curriculo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +185,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -189,24 +209,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBBE0E3"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBFEBE"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDE9D9"/>
+        <fgColor rgb="FFFBD1F8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -358,11 +378,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -373,27 +443,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -418,19 +473,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFBD1F8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -705,55 +830,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="137.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="137.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" customWidth="1"/>
-    <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" customWidth="1"/>
+    <col min="3" max="3" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" customWidth="1"/>
     <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>21</v>
-      </c>
+    <row r="1" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
     </row>
-    <row r="3" spans="1:10" ht="23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="15"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -772,95 +906,166 @@
         <v>9</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="29"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="19"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="17">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="29"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="19"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="17">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="29"/>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+    <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="19"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="17">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="30"/>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="9">
-        <v>2</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="19"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="22">
+        <v>5</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="31"/>
     </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="9">
-        <v>3</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="19"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="22">
+        <v>6</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="39" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="9">
-        <v>4</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="19"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="22">
+        <v>7</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="20"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="21">
+        <v>8</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="37"/>
+      <c r="J12" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B5:B12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/17. Análise dos Eventos.xlsx
+++ b/17. Análise dos Eventos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Faculdade\hunter\Artefatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F619E969-83C5-4F57-BB82-FFE972B343A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3E150D-A808-4F55-98DA-4D04FFC6006E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,50 +449,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -544,6 +502,48 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,7 +833,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="137.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -850,40 +850,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="32"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
@@ -910,162 +910,162 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="29"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="17">
+      <c r="A6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="6">
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="33" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="29"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="17">
+      <c r="A7" s="37"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="6">
         <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="33" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="29"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="17">
+      <c r="A8" s="37"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="6">
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="30"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="22">
+      <c r="A9" s="37"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="8">
         <v>5</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="38" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="31"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="22">
+      <c r="A10" s="37"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="8">
         <v>6</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="39" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="22">
+      <c r="A11" s="37"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="8">
         <v>7</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="36" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="31"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="21">
+      <c r="A12" s="38"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="7">
         <v>8</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="40" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="32"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B5:B12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="B5:B12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
